--- a/biology/Virologie/Awa_Marie_Coll_Seck/Awa_Marie_Coll_Seck.xlsx
+++ b/biology/Virologie/Awa_Marie_Coll_Seck/Awa_Marie_Coll_Seck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le professeur Awa Marie Coll, épouse Seck, née le 1er mai 1951, est une médecin et femme politique sénégalaise. Chercheuse, en particulier sur le SIDA auquel elle a consacré de nombreuses publications, elle a été responsable de département à l'ONUSIDA à Genève de 1996 à 2001. Entre 2001 et 2003 et de 2012 à 2017, elle a été ministre de la Santé du Sénégal. Depuis le 11 septembre 2017, elle est ministre d'État auprès du président de la République du Sénégal.
@@ -514,18 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études et formation
-Née en 1951, elle effectue des études de médecine, puis réussit un concours d’internat des hôpitaux de Dakar en 1975 et obtient son doctorat en médecine en 1978. En 1979-1980, elle passe une année au service de réanimation des maladies infectieuses de l’hôpital de la Croix-Rousse de Lyon en qualité d’assistante à titre étranger. De retour au Sénégal, elle obtient respectivement en 1982 et 1984 ses diplômes de spécialisation en bactériologie – virologie et en maladies infectieuses et tropicales à l'université Cheikh Anta Diop de Dakar. De 1982 à 1988, elle suit des formations en méthodologie de la recherche et en pédagogie à Dakar, Libreville, Bordeaux, et Annecy.
-Carrière sportive
-Joueuse de basket-ball, elle évolue à la Jeanne d'Arc de Dakar[1].
-Carrière dans le domaine médical
-En 1989, elle est nommée professeur titulaire de la chaire de maladies infectieuses à l'université de Dakar et chef du service des maladies infectieuses au centre hospitalier universitaire de Fann (Dakar)[2]. De 1989 à 1996, elle est responsable du groupe clinique-counseling du Comité national de lutte contre le sida (CNLS). À ce titre, elle coordonne les activités de prise en charge médicales et psychosociales des malades du sida.
-De 1996 à 2001, elle rejoint les Nations unies, au sein du programme sur le VIH/SIDA (ONUSIDA), suit les actions de préventions et de traitement du Sida dans les différents continents et en effectue le bilan, tel en 1999 en tant que directrice adjointe de l'ONUSIDA[3].
-Carrière politique
-Elle est sollicitée en mai 2001 au Sénégal par le président de la République Abdoulaye Wade, soucieux de faire revenir au pays une partie de son élite travaillant à l'étranger[4], pour occuper, au sein du gouvernement dirigé par Mame Madior Boye, le poste de ministre de la Santé et de la Prévention, en tant que personnalité de la société civile[5]. Elle reste à ce même poste lors de la mise en place d'une nouvelle équipe gouvernementale en novembre 2002, le gouvernement Idrissa Seck (1). Elle fait porter l'action de son ministère, notamment, sur l'amélioration de la couverture vaccinale des enfants, et de la santé maternelle[4]. Puis elle quitte le ministère lors du renouvellement de cette équipe en août 2003 (nouvelle équipe gouvernementale dite gouvernement Idrissa Seck (2)[2].
-Début 2004, elle devient directrice exécutive du partenariat mondial « Faire reculer le paludisme » ((intitulé en angl. : Roll Back Malaria)[2],[4],[6].
-En 2012, elle est à nouveau nommée ministre de la Santé, au sein du gouvernement Mbaye, le premier du successeur de Abdoulaye Wade à la présidence, Macky Sall. Elle est notamment confrontée à l'extension à plusieurs pays de l'Afrique de l'Ouest d'une épidémie d'Ebola, partie du sud de la Guinée en décembre 2013 et qui atteint le Sénégal en août 2014[7],[8].
-Elle n'est pas reconduite à ce poste de ministre de la Santé dans le deuxième gouvernement Dionne du 7 septembre 2017, désireux de constituer une équipe aux profils politiques[9], mais devient en revanche, quelques jours plus tard, ministre d'État auprès de ce président de la République[6] et elle préside le Comité National de l'Initiative pour la Transparence dans les Industries Extractives. Elle démissionne de son poste le 6 février 2024, au lendemain de l'annonce du report de l'élection présidentielle de 2024[10].
+          <t>Études et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1951, elle effectue des études de médecine, puis réussit un concours d’internat des hôpitaux de Dakar en 1975 et obtient son doctorat en médecine en 1978. En 1979-1980, elle passe une année au service de réanimation des maladies infectieuses de l’hôpital de la Croix-Rousse de Lyon en qualité d’assistante à titre étranger. De retour au Sénégal, elle obtient respectivement en 1982 et 1984 ses diplômes de spécialisation en bactériologie – virologie et en maladies infectieuses et tropicales à l'université Cheikh Anta Diop de Dakar. De 1982 à 1988, elle suit des formations en méthodologie de la recherche et en pédagogie à Dakar, Libreville, Bordeaux, et Annecy.
 </t>
         </is>
       </c>
@@ -551,14 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Décorations</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ordre des Palmes académiques (France)
-Ordre national du Mérite (France)
-Ordre national du Mérite (Burkina Faso)</t>
+          <t>Carrière sportive</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joueuse de basket-ball, elle évolue à la Jeanne d'Arc de Dakar.
+</t>
         </is>
       </c>
     </row>
@@ -583,10 +595,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière dans le domaine médical</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1989, elle est nommée professeur titulaire de la chaire de maladies infectieuses à l'université de Dakar et chef du service des maladies infectieuses au centre hospitalier universitaire de Fann (Dakar). De 1989 à 1996, elle est responsable du groupe clinique-counseling du Comité national de lutte contre le sida (CNLS). À ce titre, elle coordonne les activités de prise en charge médicales et psychosociales des malades du sida.
+De 1996 à 2001, elle rejoint les Nations unies, au sein du programme sur le VIH/SIDA (ONUSIDA), suit les actions de préventions et de traitement du Sida dans les différents continents et en effectue le bilan, tel en 1999 en tant que directrice adjointe de l'ONUSIDA.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Awa_Marie_Coll_Seck</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Awa_Marie_Coll_Seck</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est sollicitée en mai 2001 au Sénégal par le président de la République Abdoulaye Wade, soucieux de faire revenir au pays une partie de son élite travaillant à l'étranger, pour occuper, au sein du gouvernement dirigé par Mame Madior Boye, le poste de ministre de la Santé et de la Prévention, en tant que personnalité de la société civile. Elle reste à ce même poste lors de la mise en place d'une nouvelle équipe gouvernementale en novembre 2002, le gouvernement Idrissa Seck (1). Elle fait porter l'action de son ministère, notamment, sur l'amélioration de la couverture vaccinale des enfants, et de la santé maternelle. Puis elle quitte le ministère lors du renouvellement de cette équipe en août 2003 (nouvelle équipe gouvernementale dite gouvernement Idrissa Seck (2).
+Début 2004, elle devient directrice exécutive du partenariat mondial « Faire reculer le paludisme » ((intitulé en angl. : Roll Back Malaria).
+En 2012, elle est à nouveau nommée ministre de la Santé, au sein du gouvernement Mbaye, le premier du successeur de Abdoulaye Wade à la présidence, Macky Sall. Elle est notamment confrontée à l'extension à plusieurs pays de l'Afrique de l'Ouest d'une épidémie d'Ebola, partie du sud de la Guinée en décembre 2013 et qui atteint le Sénégal en août 2014,.
+Elle n'est pas reconduite à ce poste de ministre de la Santé dans le deuxième gouvernement Dionne du 7 septembre 2017, désireux de constituer une équipe aux profils politiques, mais devient en revanche, quelques jours plus tard, ministre d'État auprès de ce président de la République et elle préside le Comité National de l'Initiative pour la Transparence dans les Industries Extractives. Elle démissionne de son poste le 6 février 2024, au lendemain de l'annonce du report de l'élection présidentielle de 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Awa_Marie_Coll_Seck</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Awa_Marie_Coll_Seck</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ordre des Palmes académiques (France)
+Ordre national du Mérite (France)
+Ordre national du Mérite (Burkina Faso)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Awa_Marie_Coll_Seck</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Awa_Marie_Coll_Seck</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Études
 1978 : docteur d’État en médecine (Dakar, Sénégal)
@@ -619,7 +745,7 @@
 Membre de l'Académie des sciences et technologies du Sénégal
 Membre fondateur et présidente du Collectif en mouvement pour l'équité, les valeurs et l'action (COMEVA)
 Membre associé de l'Académie nationale de Pharmacie, France (élue le 30.09.2015)
-2003 : docteur honoris causa de l'Université Pierre-et-Marie-Curie[11].</t>
+2003 : docteur honoris causa de l'Université Pierre-et-Marie-Curie.</t>
         </is>
       </c>
     </row>
